--- a/old_database/crypto/rnaSample/rnaSample_1272.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_1272.xlsx
@@ -46,7 +46,7 @@
     <t>06.25.14</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1272</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/rnaSample/rnaSample_1272.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_1272.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="13">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">06.18.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_1272</t>
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,12 +98,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +158,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,15 +182,17 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -233,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,13 +255,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,13 +278,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,13 +301,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,13 +324,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,13 +347,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,13 +370,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,13 +393,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,13 +416,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,13 +439,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,13 +462,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,18 +531,18 @@
         <v>8</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>9</v>
@@ -552,21 +551,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>9</v>
@@ -575,21 +574,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>9</v>
@@ -598,21 +597,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -621,21 +620,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -644,21 +643,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -667,21 +666,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -690,21 +689,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -713,21 +712,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>9</v>
@@ -736,21 +735,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -759,21 +758,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -782,21 +781,21 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>9</v>
@@ -805,21 +804,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>9</v>
@@ -828,21 +827,21 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>9</v>
@@ -851,16 +850,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
